--- a/Mifos Automation Excels/Client/4090-CREATEACTIVECLIENT-DISBURSE2LOANS-CLOSE1LOAN.xlsx
+++ b/Mifos Automation Excels/Client/4090-CREATEACTIVECLIENT-DISBURSE2LOANS-CLOSE1LOAN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>office</t>
   </si>
@@ -109,9 +109,6 @@
     <t>submitloan</t>
   </si>
   <si>
-    <t>4061-CREATECLIENT-SUBMITNEWLOAN-CLOSECLIENT</t>
-  </si>
-  <si>
     <t>CloseClient</t>
   </si>
   <si>
@@ -133,10 +130,34 @@
     <t>Click</t>
   </si>
   <si>
-    <t>VerifyCloseClient</t>
-  </si>
-  <si>
     <t>Client cannot be closed because of non-closed loans.</t>
+  </si>
+  <si>
+    <t>submitclient</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>3500-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>loantrancheclick</t>
+  </si>
+  <si>
+    <t>plus 0</t>
+  </si>
+  <si>
+    <t>expecteddisbursementon</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>verify1</t>
   </si>
 </sst>
 </file>
@@ -147,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -161,6 +182,11 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -196,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -215,6 +241,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,6 +623,14 @@
         <v>42005</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -598,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,58 +684,90 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
+      <c r="A8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
-        <v>42005</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -705,24 +778,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -738,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,58 +831,90 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11">
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5">
         <v>42005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
+      <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5">
-        <v>42005</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -823,7 +928,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -842,15 +947,15 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9">
         <v>42005</v>
@@ -858,26 +963,26 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
